--- a/data/144/SCB/old/FM0001BytBKv.xlsx
+++ b/data/144/SCB/old/FM0001BytBKv.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <x:si>
     <x:t>Balance of Payments. Current account, SEK billions by country group, exports and imports, item and quarter</x:t>
   </x:si>
@@ -546,6 +546,9 @@
   </x:si>
   <x:si>
     <x:t>2021K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K3</x:t>
   </x:si>
   <x:si>
     <x:t>total transactions</x:t>
@@ -594,7 +597,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210903 09:30</x:t>
+    <x:t>20211206 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1041,7 +1044,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FE64"/>
+  <x:dimension ref="A1:FF64"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -1050,15 +1053,15 @@
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="8.840625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="23.840625" style="0" customWidth="1"/>
-    <x:col min="4" max="161" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="4" max="162" width="9.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:161">
+    <x:row r="1" spans="1:162">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:161">
+    <x:row r="3" spans="1:162">
       <x:c r="D3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1533,16 +1536,19 @@
       <x:c r="FE3" s="2" t="s">
         <x:v>158</x:v>
       </x:c>
+      <x:c r="FF3" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:161">
+    <x:row r="4" spans="1:162">
       <x:c r="A4" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D4" s="3" t="n">
         <x:v>-2.6</x:v>
@@ -1977,53 +1983,56 @@
         <x:v>39.9</x:v>
       </x:c>
       <x:c r="ER4" s="3" t="n">
-        <x:v>29.5</x:v>
+        <x:v>30.4</x:v>
       </x:c>
       <x:c r="ES4" s="3" t="n">
-        <x:v>10.9</x:v>
+        <x:v>11.9</x:v>
       </x:c>
       <x:c r="ET4" s="3" t="n">
-        <x:v>48.6</x:v>
+        <x:v>49.6</x:v>
       </x:c>
       <x:c r="EU4" s="3" t="n">
-        <x:v>38.3</x:v>
+        <x:v>39.2</x:v>
       </x:c>
       <x:c r="EV4" s="3" t="n">
-        <x:v>70.6</x:v>
+        <x:v>70.7</x:v>
       </x:c>
       <x:c r="EW4" s="3" t="n">
-        <x:v>64</x:v>
+        <x:v>64.1</x:v>
       </x:c>
       <x:c r="EX4" s="3" t="n">
-        <x:v>87.4</x:v>
+        <x:v>87.5</x:v>
       </x:c>
       <x:c r="EY4" s="3" t="n">
-        <x:v>53.9</x:v>
+        <x:v>54.1</x:v>
       </x:c>
       <x:c r="EZ4" s="3" t="n">
-        <x:v>77.9</x:v>
+        <x:v>82.7</x:v>
       </x:c>
       <x:c r="FA4" s="3" t="n">
-        <x:v>64.8</x:v>
+        <x:v>68.3</x:v>
       </x:c>
       <x:c r="FB4" s="3" t="n">
-        <x:v>72.2</x:v>
+        <x:v>76.4</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>74.5</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="FE4" s="3" t="n">
-        <x:v>80.3</x:v>
+        <x:v>85.7</x:v>
+      </x:c>
+      <x:c r="FF4" s="3" t="n">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:161">
+    <x:row r="5" spans="1:162">
       <x:c r="A5" s="0" t="s"/>
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D5" s="3" t="n">
         <x:v>0.5</x:v>
@@ -2485,26 +2494,29 @@
         <x:v>70.3</x:v>
       </x:c>
       <x:c r="FA5" s="3" t="n">
-        <x:v>41.8</x:v>
+        <x:v>40.5</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
-        <x:v>46.4</x:v>
+        <x:v>45.8</x:v>
       </x:c>
       <x:c r="FC5" s="3" t="n">
-        <x:v>73.3</x:v>
+        <x:v>72.6</x:v>
       </x:c>
       <x:c r="FD5" s="3" t="n">
         <x:v>70.6</x:v>
       </x:c>
       <x:c r="FE5" s="3" t="n">
-        <x:v>70.2</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="FF5" s="3" t="n">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:161">
+    <x:row r="6" spans="1:162">
       <x:c r="A6" s="0" t="s"/>
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D6" s="3" t="n">
         <x:v>0.4</x:v>
@@ -2966,26 +2978,29 @@
         <x:v>77.1</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>46.7</x:v>
+        <x:v>45.4</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>49.1</x:v>
+        <x:v>48.3</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>60.6</x:v>
+        <x:v>59.8</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
         <x:v>67.2</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>68.3</x:v>
+        <x:v>68.9</x:v>
+      </x:c>
+      <x:c r="FF6" s="3" t="n">
+        <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:161">
+    <x:row r="7" spans="1:162">
       <x:c r="A7" s="0" t="s"/>
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D7" s="3" t="n">
         <x:v>0.2</x:v>
@@ -3450,23 +3465,26 @@
         <x:v>-4.9</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>-2.7</x:v>
+        <x:v>-2.5</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
         <x:v>12.7</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>3.3</x:v>
+        <x:v>3.4</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>1.9</x:v>
+        <x:v>3.1</x:v>
+      </x:c>
+      <x:c r="FF7" s="3" t="n">
+        <x:v>-8</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:161">
+    <x:row r="8" spans="1:162">
       <x:c r="A8" s="0" t="s"/>
       <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D8" s="3" t="n">
         <x:v>-1.9</x:v>
@@ -3901,53 +3919,56 @@
         <x:v>22.7</x:v>
       </x:c>
       <x:c r="ER8" s="3" t="n">
-        <x:v>25.6</x:v>
+        <x:v>26.5</x:v>
       </x:c>
       <x:c r="ES8" s="3" t="n">
-        <x:v>-5.9</x:v>
+        <x:v>-4.9</x:v>
       </x:c>
       <x:c r="ET8" s="3" t="n">
-        <x:v>43.6</x:v>
+        <x:v>44.6</x:v>
       </x:c>
       <x:c r="EU8" s="3" t="n">
-        <x:v>28.4</x:v>
+        <x:v>29.4</x:v>
       </x:c>
       <x:c r="EV8" s="3" t="n">
-        <x:v>53.3</x:v>
+        <x:v>53.4</x:v>
       </x:c>
       <x:c r="EW8" s="3" t="n">
-        <x:v>4.5</x:v>
+        <x:v>4.6</x:v>
       </x:c>
       <x:c r="EX8" s="3" t="n">
-        <x:v>53.3</x:v>
+        <x:v>53.4</x:v>
       </x:c>
       <x:c r="EY8" s="3" t="n">
-        <x:v>36.1</x:v>
+        <x:v>36.2</x:v>
       </x:c>
       <x:c r="EZ8" s="3" t="n">
-        <x:v>40.6</x:v>
+        <x:v>45.4</x:v>
       </x:c>
       <x:c r="FA8" s="3" t="n">
-        <x:v>47.3</x:v>
+        <x:v>52.1</x:v>
       </x:c>
       <x:c r="FB8" s="3" t="n">
-        <x:v>43.3</x:v>
+        <x:v>48.1</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>24.8</x:v>
+        <x:v>29.5</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>43.5</x:v>
+        <x:v>49.1</x:v>
       </x:c>
       <x:c r="FE8" s="3" t="n">
-        <x:v>31.3</x:v>
+        <x:v>35.1</x:v>
+      </x:c>
+      <x:c r="FF8" s="3" t="n">
+        <x:v>45.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:161">
+    <x:row r="9" spans="1:162">
       <x:c r="A9" s="0" t="s"/>
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D9" s="3" t="n">
         <x:v>-1.9</x:v>
@@ -4382,51 +4403,54 @@
         <x:v>21.6</x:v>
       </x:c>
       <x:c r="ER9" s="3" t="n">
-        <x:v>22.7</x:v>
+        <x:v>23.6</x:v>
       </x:c>
       <x:c r="ES9" s="3" t="n">
-        <x:v>-9</x:v>
+        <x:v>-8.1</x:v>
       </x:c>
       <x:c r="ET9" s="3" t="n">
+        <x:v>41.8</x:v>
+      </x:c>
+      <x:c r="EU9" s="3" t="n">
+        <x:v>28.3</x:v>
+      </x:c>
+      <x:c r="EV9" s="3" t="n">
+        <x:v>49.2</x:v>
+      </x:c>
+      <x:c r="EW9" s="3" t="n">
+        <x:v>0.8</x:v>
+      </x:c>
+      <x:c r="EX9" s="3" t="n">
+        <x:v>49.9</x:v>
+      </x:c>
+      <x:c r="EY9" s="3" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="EZ9" s="3" t="n">
         <x:v>40.8</x:v>
       </x:c>
-      <x:c r="EU9" s="3" t="n">
-        <x:v>27.3</x:v>
-      </x:c>
-      <x:c r="EV9" s="3" t="n">
-        <x:v>49.1</x:v>
-      </x:c>
-      <x:c r="EW9" s="3" t="n">
-        <x:v>0.7</x:v>
-      </x:c>
-      <x:c r="EX9" s="3" t="n">
-        <x:v>49.8</x:v>
-      </x:c>
-      <x:c r="EY9" s="3" t="n">
-        <x:v>33.9</x:v>
-      </x:c>
-      <x:c r="EZ9" s="3" t="n">
-        <x:v>35.9</x:v>
-      </x:c>
       <x:c r="FA9" s="3" t="n">
-        <x:v>44</x:v>
+        <x:v>48.8</x:v>
       </x:c>
       <x:c r="FB9" s="3" t="n">
-        <x:v>40.3</x:v>
+        <x:v>45.1</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>20.1</x:v>
+        <x:v>24.8</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
-        <x:v>40.4</x:v>
+        <x:v>46.1</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>28.6</x:v>
+        <x:v>32.5</x:v>
+      </x:c>
+      <x:c r="FF9" s="3" t="n">
+        <x:v>42.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:161">
+    <x:row r="10" spans="1:162">
       <x:c r="C10" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D10" s="3" t="n">
         <x:v>-1.2</x:v>
@@ -4873,10 +4897,10 @@
         <x:v>-22.8</x:v>
       </x:c>
       <x:c r="EV10" s="3" t="n">
-        <x:v>-32</x:v>
+        <x:v>-31.9</x:v>
       </x:c>
       <x:c r="EW10" s="3" t="n">
-        <x:v>-10.1</x:v>
+        <x:v>-10</x:v>
       </x:c>
       <x:c r="EX10" s="3" t="n">
         <x:v>-21.1</x:v>
@@ -4900,15 +4924,18 @@
         <x:v>-39.6</x:v>
       </x:c>
       <x:c r="FE10" s="3" t="n">
-        <x:v>-21.3</x:v>
+        <x:v>-21.4</x:v>
+      </x:c>
+      <x:c r="FF10" s="3" t="n">
+        <x:v>-21.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:161">
+    <x:row r="11" spans="1:162">
       <x:c r="B11" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D11" s="3" t="n">
         <x:v>53.4</x:v>
@@ -5355,41 +5382,44 @@
         <x:v>722.3</x:v>
       </x:c>
       <x:c r="EV11" s="3" t="n">
-        <x:v>731.2</x:v>
+        <x:v>730.7</x:v>
       </x:c>
       <x:c r="EW11" s="3" t="n">
-        <x:v>818.4</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="EX11" s="3" t="n">
-        <x:v>740.4</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="EY11" s="3" t="n">
-        <x:v>768</x:v>
+        <x:v>767.6</x:v>
       </x:c>
       <x:c r="EZ11" s="3" t="n">
-        <x:v>722.8</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="FA11" s="3" t="n">
-        <x:v>649.7</x:v>
+        <x:v>653.4</x:v>
       </x:c>
       <x:c r="FB11" s="3" t="n">
-        <x:v>644.6</x:v>
+        <x:v>648.3</x:v>
       </x:c>
       <x:c r="FC11" s="3" t="n">
-        <x:v>739</x:v>
+        <x:v>742.8</x:v>
       </x:c>
       <x:c r="FD11" s="3" t="n">
-        <x:v>724.7</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="FE11" s="3" t="n">
-        <x:v>803.5</x:v>
+        <x:v>809.3</x:v>
+      </x:c>
+      <x:c r="FF11" s="3" t="n">
+        <x:v>750</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:161">
+    <x:row r="12" spans="1:162">
       <x:c r="A12" s="0" t="s"/>
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D12" s="3" t="n">
         <x:v>49.5</x:v>
@@ -5848,7 +5878,7 @@
         <x:v>625</x:v>
       </x:c>
       <x:c r="EZ12" s="3" t="n">
-        <x:v>598.4</x:v>
+        <x:v>598.8</x:v>
       </x:c>
       <x:c r="FA12" s="3" t="n">
         <x:v>501.7</x:v>
@@ -5857,20 +5887,23 @@
         <x:v>521.6</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>613.3</x:v>
+        <x:v>613.2</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>583</x:v>
+        <x:v>583.1</x:v>
       </x:c>
       <x:c r="FE12" s="3" t="n">
-        <x:v>617.5</x:v>
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="FF12" s="3" t="n">
+        <x:v>600.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:161">
+    <x:row r="13" spans="1:162">
       <x:c r="A13" s="0" t="s"/>
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D13" s="3" t="n">
         <x:v>40.2</x:v>
@@ -6329,29 +6362,32 @@
         <x:v>434.1</x:v>
       </x:c>
       <x:c r="EZ13" s="3" t="n">
-        <x:v>433.9</x:v>
+        <x:v>434.3</x:v>
       </x:c>
       <x:c r="FA13" s="3" t="n">
         <x:v>360.9</x:v>
       </x:c>
       <x:c r="FB13" s="3" t="n">
-        <x:v>377.1</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="FC13" s="3" t="n">
         <x:v>432.3</x:v>
       </x:c>
       <x:c r="FD13" s="3" t="n">
-        <x:v>432.5</x:v>
+        <x:v>432.6</x:v>
       </x:c>
       <x:c r="FE13" s="3" t="n">
-        <x:v>458.1</x:v>
+        <x:v>459.2</x:v>
+      </x:c>
+      <x:c r="FF13" s="3" t="n">
+        <x:v>431.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:161">
+    <x:row r="14" spans="1:162">
       <x:c r="A14" s="0" t="s"/>
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D14" s="3" t="n">
         <x:v>9.2</x:v>
@@ -6816,7 +6852,7 @@
         <x:v>140.8</x:v>
       </x:c>
       <x:c r="FB14" s="3" t="n">
-        <x:v>144.5</x:v>
+        <x:v>144.6</x:v>
       </x:c>
       <x:c r="FC14" s="3" t="n">
         <x:v>180.9</x:v>
@@ -6825,14 +6861,17 @@
         <x:v>150.5</x:v>
       </x:c>
       <x:c r="FE14" s="3" t="n">
-        <x:v>159.4</x:v>
+        <x:v>160.8</x:v>
+      </x:c>
+      <x:c r="FF14" s="3" t="n">
+        <x:v>169.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:161">
+    <x:row r="15" spans="1:162">
       <x:c r="A15" s="0" t="s"/>
       <x:c r="B15" s="0" t="s"/>
       <x:c r="C15" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D15" s="3" t="n">
         <x:v>3.8</x:v>
@@ -7279,41 +7318,44 @@
         <x:v>114.2</x:v>
       </x:c>
       <x:c r="EV15" s="3" t="n">
-        <x:v>132.7</x:v>
+        <x:v>132.2</x:v>
       </x:c>
       <x:c r="EW15" s="3" t="n">
-        <x:v>168.4</x:v>
+        <x:v>167.9</x:v>
       </x:c>
       <x:c r="EX15" s="3" t="n">
-        <x:v>131.7</x:v>
+        <x:v>131.2</x:v>
       </x:c>
       <x:c r="EY15" s="3" t="n">
-        <x:v>127.2</x:v>
+        <x:v>126.7</x:v>
       </x:c>
       <x:c r="EZ15" s="3" t="n">
-        <x:v>112.5</x:v>
+        <x:v>116.4</x:v>
       </x:c>
       <x:c r="FA15" s="3" t="n">
-        <x:v>133.5</x:v>
+        <x:v>137.4</x:v>
       </x:c>
       <x:c r="FB15" s="3" t="n">
-        <x:v>112.8</x:v>
+        <x:v>116.7</x:v>
       </x:c>
       <x:c r="FC15" s="3" t="n">
-        <x:v>113.1</x:v>
+        <x:v>117.1</x:v>
       </x:c>
       <x:c r="FD15" s="3" t="n">
-        <x:v>131.9</x:v>
+        <x:v>137.3</x:v>
       </x:c>
       <x:c r="FE15" s="3" t="n">
-        <x:v>167.6</x:v>
+        <x:v>171.3</x:v>
+      </x:c>
+      <x:c r="FF15" s="3" t="n">
+        <x:v>138.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:161">
+    <x:row r="16" spans="1:162">
       <x:c r="A16" s="0" t="s"/>
       <x:c r="B16" s="0" t="s"/>
       <x:c r="C16" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D16" s="3" t="n">
         <x:v>3.8</x:v>
@@ -7760,39 +7802,42 @@
         <x:v>106.6</x:v>
       </x:c>
       <x:c r="EV16" s="3" t="n">
-        <x:v>123.7</x:v>
+        <x:v>123.2</x:v>
       </x:c>
       <x:c r="EW16" s="3" t="n">
-        <x:v>159.5</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="EX16" s="3" t="n">
-        <x:v>123.4</x:v>
+        <x:v>122.9</x:v>
       </x:c>
       <x:c r="EY16" s="3" t="n">
-        <x:v>118.6</x:v>
+        <x:v>118.1</x:v>
       </x:c>
       <x:c r="EZ16" s="3" t="n">
-        <x:v>103.2</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="FA16" s="3" t="n">
-        <x:v>125.6</x:v>
+        <x:v>129.5</x:v>
       </x:c>
       <x:c r="FB16" s="3" t="n">
-        <x:v>105.4</x:v>
+        <x:v>109.3</x:v>
       </x:c>
       <x:c r="FC16" s="3" t="n">
-        <x:v>102.9</x:v>
+        <x:v>106.9</x:v>
       </x:c>
       <x:c r="FD16" s="3" t="n">
-        <x:v>124.4</x:v>
+        <x:v>129.8</x:v>
       </x:c>
       <x:c r="FE16" s="3" t="n">
-        <x:v>159.8</x:v>
+        <x:v>163.6</x:v>
+      </x:c>
+      <x:c r="FF16" s="3" t="n">
+        <x:v>130</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:161">
+    <x:row r="17" spans="1:162">
       <x:c r="C17" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D17" s="3" t="n">
         <x:v>0.1</x:v>
@@ -8245,36 +8290,39 @@
         <x:v>23.5</x:v>
       </x:c>
       <x:c r="EX17" s="3" t="n">
-        <x:v>11.5</x:v>
+        <x:v>11.6</x:v>
       </x:c>
       <x:c r="EY17" s="3" t="n">
         <x:v>15.8</x:v>
       </x:c>
       <x:c r="EZ17" s="3" t="n">
-        <x:v>11.9</x:v>
+        <x:v>11.8</x:v>
       </x:c>
       <x:c r="FA17" s="3" t="n">
-        <x:v>14.4</x:v>
+        <x:v>14.3</x:v>
       </x:c>
       <x:c r="FB17" s="3" t="n">
-        <x:v>10.1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="FC17" s="3" t="n">
-        <x:v>12.6</x:v>
+        <x:v>12.5</x:v>
       </x:c>
       <x:c r="FD17" s="3" t="n">
-        <x:v>9.8</x:v>
+        <x:v>9.6</x:v>
       </x:c>
       <x:c r="FE17" s="3" t="n">
-        <x:v>18.4</x:v>
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="FF17" s="3" t="n">
+        <x:v>11.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:161">
+    <x:row r="18" spans="1:162">
       <x:c r="B18" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D18" s="3" t="n">
         <x:v>56</x:v>
@@ -8709,53 +8757,56 @@
         <x:v>611.7</x:v>
       </x:c>
       <x:c r="ER18" s="3" t="n">
-        <x:v>620.7</x:v>
+        <x:v>619.8</x:v>
       </x:c>
       <x:c r="ES18" s="3" t="n">
-        <x:v>718.7</x:v>
+        <x:v>717.8</x:v>
       </x:c>
       <x:c r="ET18" s="3" t="n">
-        <x:v>619.2</x:v>
+        <x:v>618.2</x:v>
       </x:c>
       <x:c r="EU18" s="3" t="n">
-        <x:v>684</x:v>
+        <x:v>683.1</x:v>
       </x:c>
       <x:c r="EV18" s="3" t="n">
-        <x:v>660.6</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="EW18" s="3" t="n">
-        <x:v>754.5</x:v>
+        <x:v>753.9</x:v>
       </x:c>
       <x:c r="EX18" s="3" t="n">
-        <x:v>653</x:v>
+        <x:v>652.4</x:v>
       </x:c>
       <x:c r="EY18" s="3" t="n">
-        <x:v>714.1</x:v>
+        <x:v>713.5</x:v>
       </x:c>
       <x:c r="EZ18" s="3" t="n">
-        <x:v>645</x:v>
+        <x:v>644.3</x:v>
       </x:c>
       <x:c r="FA18" s="3" t="n">
-        <x:v>584.9</x:v>
+        <x:v>585.1</x:v>
       </x:c>
       <x:c r="FB18" s="3" t="n">
-        <x:v>572.3</x:v>
+        <x:v>571.9</x:v>
       </x:c>
       <x:c r="FC18" s="3" t="n">
-        <x:v>670</x:v>
+        <x:v>669.7</x:v>
       </x:c>
       <x:c r="FD18" s="3" t="n">
-        <x:v>650.2</x:v>
+        <x:v>649.9</x:v>
       </x:c>
       <x:c r="FE18" s="3" t="n">
-        <x:v>723.2</x:v>
+        <x:v>723.6</x:v>
+      </x:c>
+      <x:c r="FF18" s="3" t="n">
+        <x:v>687</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:161">
+    <x:row r="19" spans="1:162">
       <x:c r="A19" s="0" t="s"/>
       <x:c r="B19" s="0" t="s"/>
       <x:c r="C19" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D19" s="3" t="n">
         <x:v>48.9</x:v>
@@ -9214,29 +9265,32 @@
         <x:v>575.3</x:v>
       </x:c>
       <x:c r="EZ19" s="3" t="n">
-        <x:v>528.1</x:v>
+        <x:v>528.5</x:v>
       </x:c>
       <x:c r="FA19" s="3" t="n">
-        <x:v>459.9</x:v>
+        <x:v>461.2</x:v>
       </x:c>
       <x:c r="FB19" s="3" t="n">
-        <x:v>475.2</x:v>
+        <x:v>475.8</x:v>
       </x:c>
       <x:c r="FC19" s="3" t="n">
-        <x:v>540</x:v>
+        <x:v>540.7</x:v>
       </x:c>
       <x:c r="FD19" s="3" t="n">
         <x:v>512.5</x:v>
       </x:c>
       <x:c r="FE19" s="3" t="n">
-        <x:v>547.3</x:v>
+        <x:v>548.1</x:v>
+      </x:c>
+      <x:c r="FF19" s="3" t="n">
+        <x:v>561.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:161">
+    <x:row r="20" spans="1:162">
       <x:c r="A20" s="0" t="s"/>
       <x:c r="B20" s="0" t="s"/>
       <x:c r="C20" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D20" s="3" t="n">
         <x:v>39.9</x:v>
@@ -9695,29 +9749,32 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="EZ20" s="3" t="n">
-        <x:v>356.9</x:v>
+        <x:v>357.2</x:v>
       </x:c>
       <x:c r="FA20" s="3" t="n">
-        <x:v>314.2</x:v>
+        <x:v>315.5</x:v>
       </x:c>
       <x:c r="FB20" s="3" t="n">
-        <x:v>328</x:v>
+        <x:v>328.7</x:v>
       </x:c>
       <x:c r="FC20" s="3" t="n">
-        <x:v>371.7</x:v>
+        <x:v>372.4</x:v>
       </x:c>
       <x:c r="FD20" s="3" t="n">
-        <x:v>365.3</x:v>
+        <x:v>365.4</x:v>
       </x:c>
       <x:c r="FE20" s="3" t="n">
-        <x:v>389.7</x:v>
+        <x:v>390.3</x:v>
+      </x:c>
+      <x:c r="FF20" s="3" t="n">
+        <x:v>384.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:161">
+    <x:row r="21" spans="1:162">
       <x:c r="A21" s="0" t="s"/>
       <x:c r="B21" s="0" t="s"/>
       <x:c r="C21" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D21" s="3" t="n">
         <x:v>9</x:v>
@@ -10182,23 +10239,26 @@
         <x:v>145.7</x:v>
       </x:c>
       <x:c r="FB21" s="3" t="n">
-        <x:v>147.2</x:v>
+        <x:v>147.1</x:v>
       </x:c>
       <x:c r="FC21" s="3" t="n">
         <x:v>168.2</x:v>
       </x:c>
       <x:c r="FD21" s="3" t="n">
-        <x:v>147.2</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="FE21" s="3" t="n">
-        <x:v>157.5</x:v>
+        <x:v>157.8</x:v>
+      </x:c>
+      <x:c r="FF21" s="3" t="n">
+        <x:v>177.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:161">
+    <x:row r="22" spans="1:162">
       <x:c r="A22" s="0" t="s"/>
       <x:c r="B22" s="0" t="s"/>
       <x:c r="C22" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D22" s="3" t="n">
         <x:v>5.7</x:v>
@@ -10633,53 +10693,56 @@
         <x:v>74.8</x:v>
       </x:c>
       <x:c r="ER22" s="3" t="n">
-        <x:v>90.2</x:v>
+        <x:v>89.2</x:v>
       </x:c>
       <x:c r="ES22" s="3" t="n">
-        <x:v>160.2</x:v>
+        <x:v>159.2</x:v>
       </x:c>
       <x:c r="ET22" s="3" t="n">
-        <x:v>75.6</x:v>
+        <x:v>74.6</x:v>
       </x:c>
       <x:c r="EU22" s="3" t="n">
-        <x:v>85.7</x:v>
+        <x:v>84.8</x:v>
       </x:c>
       <x:c r="EV22" s="3" t="n">
-        <x:v>79.4</x:v>
+        <x:v>78.8</x:v>
       </x:c>
       <x:c r="EW22" s="3" t="n">
-        <x:v>163.9</x:v>
+        <x:v>163.3</x:v>
       </x:c>
       <x:c r="EX22" s="3" t="n">
-        <x:v>78.4</x:v>
+        <x:v>77.8</x:v>
       </x:c>
       <x:c r="EY22" s="3" t="n">
-        <x:v>91.1</x:v>
+        <x:v>90.5</x:v>
       </x:c>
       <x:c r="EZ22" s="3" t="n">
-        <x:v>71.9</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="FA22" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="FB22" s="3" t="n">
-        <x:v>69.5</x:v>
+        <x:v>68.7</x:v>
       </x:c>
       <x:c r="FC22" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>87.5</x:v>
       </x:c>
       <x:c r="FD22" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>88.2</x:v>
       </x:c>
       <x:c r="FE22" s="3" t="n">
         <x:v>136.3</x:v>
       </x:c>
+      <x:c r="FF22" s="3" t="n">
+        <x:v>93</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:161">
+    <x:row r="23" spans="1:162">
       <x:c r="A23" s="0" t="s"/>
       <x:c r="B23" s="0" t="s"/>
       <x:c r="C23" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D23" s="3" t="n">
         <x:v>5.7</x:v>
@@ -11114,51 +11177,54 @@
         <x:v>69.1</x:v>
       </x:c>
       <x:c r="ER23" s="3" t="n">
-        <x:v>85.6</x:v>
+        <x:v>84.7</x:v>
       </x:c>
       <x:c r="ES23" s="3" t="n">
-        <x:v>155.2</x:v>
+        <x:v>154.2</x:v>
       </x:c>
       <x:c r="ET23" s="3" t="n">
-        <x:v>70.8</x:v>
+        <x:v>69.9</x:v>
       </x:c>
       <x:c r="EU23" s="3" t="n">
-        <x:v>79.3</x:v>
+        <x:v>78.3</x:v>
       </x:c>
       <x:c r="EV23" s="3" t="n">
-        <x:v>74.6</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="EW23" s="3" t="n">
-        <x:v>158.8</x:v>
+        <x:v>158.2</x:v>
       </x:c>
       <x:c r="EX23" s="3" t="n">
-        <x:v>73.5</x:v>
+        <x:v>72.9</x:v>
       </x:c>
       <x:c r="EY23" s="3" t="n">
-        <x:v>84.7</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="EZ23" s="3" t="n">
-        <x:v>67.3</x:v>
+        <x:v>66.4</x:v>
       </x:c>
       <x:c r="FA23" s="3" t="n">
-        <x:v>81.6</x:v>
+        <x:v>80.7</x:v>
       </x:c>
       <x:c r="FB23" s="3" t="n">
-        <x:v>65.1</x:v>
+        <x:v>64.2</x:v>
       </x:c>
       <x:c r="FC23" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="FD23" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="FE23" s="3" t="n">
         <x:v>131.1</x:v>
       </x:c>
+      <x:c r="FF23" s="3" t="n">
+        <x:v>87.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="24" spans="1:161">
+    <x:row r="24" spans="1:162">
       <x:c r="C24" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D24" s="3" t="n">
         <x:v>1.4</x:v>
@@ -11617,141 +11683,144 @@
         <x:v>47.7</x:v>
       </x:c>
       <x:c r="EZ24" s="3" t="n">
-        <x:v>44.9</x:v>
+        <x:v>44.7</x:v>
       </x:c>
       <x:c r="FA24" s="3" t="n">
-        <x:v>38.8</x:v>
+        <x:v>38.6</x:v>
       </x:c>
       <x:c r="FB24" s="3" t="n">
-        <x:v>27.6</x:v>
+        <x:v>27.5</x:v>
       </x:c>
       <x:c r="FC24" s="3" t="n">
-        <x:v>41.7</x:v>
+        <x:v>41.5</x:v>
       </x:c>
       <x:c r="FD24" s="3" t="n">
-        <x:v>49.3</x:v>
+        <x:v>49.2</x:v>
       </x:c>
       <x:c r="FE24" s="3" t="n">
-        <x:v>39.6</x:v>
+        <x:v>39.3</x:v>
+      </x:c>
+      <x:c r="FF24" s="3" t="n">
+        <x:v>32.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:161">
+    <x:row r="26" spans="1:162">
       <x:c r="A26" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:161">
+    <x:row r="27" spans="1:162">
       <x:c r="A27" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:161">
+    <x:row r="28" spans="1:162">
       <x:c r="A28" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:161">
+    <x:row r="31" spans="1:162">
       <x:c r="A31" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:161">
+    <x:row r="32" spans="1:162">
       <x:c r="A32" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:161">
+    <x:row r="34" spans="1:162">
       <x:c r="A34" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:161">
+    <x:row r="35" spans="1:162">
       <x:c r="A35" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:161">
+    <x:row r="37" spans="1:162">
       <x:c r="A37" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:161">
+    <x:row r="38" spans="1:162">
       <x:c r="A38" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:161">
+    <x:row r="39" spans="1:162">
       <x:c r="A39" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:161">
+    <x:row r="40" spans="1:162">
       <x:c r="A40" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:161">
+    <x:row r="41" spans="1:162">
       <x:c r="A41" s="0" t="s"/>
     </x:row>
-    <x:row r="42" spans="1:161">
+    <x:row r="42" spans="1:162">
       <x:c r="A42" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:161">
+    <x:row r="43" spans="1:162">
       <x:c r="A43" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:161">
+    <x:row r="44" spans="1:162">
       <x:c r="A44" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:161">
+    <x:row r="45" spans="1:162">
       <x:c r="A45" s="0" t="s"/>
     </x:row>
-    <x:row r="46" spans="1:161">
+    <x:row r="46" spans="1:162">
       <x:c r="A46" s="0" t="s"/>
     </x:row>
-    <x:row r="48" spans="1:161">
+    <x:row r="48" spans="1:162">
       <x:c r="A48" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:161">
+    <x:row r="50" spans="1:162">
       <x:c r="A50" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:161">
+    <x:row r="51" spans="1:162">
       <x:c r="A51" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:161">
+    <x:row r="53" spans="1:162">
       <x:c r="A53" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:161">
+    <x:row r="60" spans="1:162">
       <x:c r="A60" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:161">
+    <x:row r="61" spans="1:162">
       <x:c r="A61" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:161">
+    <x:row r="63" spans="1:162">
       <x:c r="A63" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:161">
+    <x:row r="64" spans="1:162">
       <x:c r="A64" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
